--- a/Texts/Глоссарий/Названия Приёмов.xlsx
+++ b/Texts/Глоссарий/Названия Приёмов.xlsx
@@ -5027,8 +5027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
-      <selection activeCell="C449" sqref="C449"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="D205" sqref="D205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Texts/Глоссарий/Названия Приёмов.xlsx
+++ b/Texts/Глоссарий/Названия Приёмов.xlsx
@@ -1745,9 +1745,6 @@
     <t>Изумление</t>
   </si>
   <si>
-    <t>ОгоньПризрак</t>
-  </si>
-  <si>
     <t>Преданность</t>
   </si>
   <si>
@@ -3272,9 +3269,6 @@
     <t>Éèôíìåîéå</t>
   </si>
   <si>
-    <t>ÏãïîûÐñéèñàë</t>
-  </si>
-  <si>
     <t>Ðñåäàîîïòóû</t>
   </si>
   <si>
@@ -4680,13 +4674,19 @@
   </si>
   <si>
     <t>Áìïë Ìåœåîéÿ</t>
+  </si>
+  <si>
+    <t>Пирокинез</t>
+  </si>
+  <si>
+    <t>Ðéñïëéîåè</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4713,6 +4713,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4734,7 +4742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4743,6 +4751,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5027,8 +5038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="D205" sqref="D205"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5072,7 +5083,7 @@
         <v>526</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -5087,7 +5098,7 @@
         <v>527</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -5102,7 +5113,7 @@
         <v>528</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -5117,7 +5128,7 @@
         <v>529</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -5132,7 +5143,7 @@
         <v>530</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -5147,7 +5158,7 @@
         <v>531</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -5162,7 +5173,7 @@
         <v>532</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -5177,7 +5188,7 @@
         <v>533</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -5192,7 +5203,7 @@
         <v>534</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -5207,7 +5218,7 @@
         <v>535</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -5222,7 +5233,7 @@
         <v>536</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -5237,7 +5248,7 @@
         <v>537</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -5252,7 +5263,7 @@
         <v>538</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -5267,7 +5278,7 @@
         <v>539</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -5282,7 +5293,7 @@
         <v>540</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
@@ -5297,7 +5308,7 @@
         <v>541</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
@@ -5312,7 +5323,7 @@
         <v>542</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
@@ -5327,7 +5338,7 @@
         <v>543</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -5342,7 +5353,7 @@
         <v>544</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
@@ -5357,7 +5368,7 @@
         <v>545</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
@@ -5372,7 +5383,7 @@
         <v>546</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
@@ -5387,7 +5398,7 @@
         <v>547</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
@@ -5402,7 +5413,7 @@
         <v>548</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
@@ -5417,7 +5428,7 @@
         <v>549</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
@@ -5432,7 +5443,7 @@
         <v>550</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
@@ -5447,7 +5458,7 @@
         <v>551</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
@@ -5462,7 +5473,7 @@
         <v>552</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
@@ -5477,7 +5488,7 @@
         <v>553</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
@@ -5492,7 +5503,7 @@
         <v>554</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
@@ -5507,7 +5518,7 @@
         <v>555</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
@@ -5522,7 +5533,7 @@
         <v>556</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
@@ -5537,7 +5548,7 @@
         <v>557</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
@@ -5552,7 +5563,7 @@
         <v>558</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
@@ -5567,7 +5578,7 @@
         <v>559</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
@@ -5582,7 +5593,7 @@
         <v>560</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
@@ -5597,7 +5608,7 @@
         <v>561</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
@@ -5612,7 +5623,7 @@
         <v>562</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
@@ -5627,7 +5638,7 @@
         <v>563</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
@@ -5642,7 +5653,7 @@
         <v>564</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
@@ -5657,7 +5668,7 @@
         <v>565</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
@@ -5672,7 +5683,7 @@
         <v>566</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
@@ -5687,7 +5698,7 @@
         <v>567</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
@@ -5702,7 +5713,7 @@
         <v>568</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
@@ -5717,7 +5728,7 @@
         <v>569</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
@@ -5732,7 +5743,7 @@
         <v>570</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
@@ -5747,7 +5758,7 @@
         <v>571</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
@@ -5762,7 +5773,7 @@
         <v>572</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
@@ -5770,14 +5781,14 @@
         <f t="shared" si="0"/>
         <v>8221</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>573</v>
+        <v>1550</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>1082</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
@@ -5789,10 +5800,10 @@
         <v>54</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
@@ -5804,10 +5815,10 @@
         <v>55</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
@@ -5819,10 +5830,10 @@
         <v>56</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
@@ -5834,10 +5845,10 @@
         <v>57</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
@@ -5849,10 +5860,10 @@
         <v>58</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
@@ -5864,10 +5875,10 @@
         <v>59</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
@@ -5879,10 +5890,10 @@
         <v>60</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
@@ -5894,10 +5905,10 @@
         <v>61</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
@@ -5909,10 +5920,10 @@
         <v>62</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
@@ -5924,10 +5935,10 @@
         <v>63</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
@@ -5939,10 +5950,10 @@
         <v>64</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
@@ -5954,10 +5965,10 @@
         <v>65</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
@@ -5969,10 +5980,10 @@
         <v>66</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
@@ -5984,10 +5995,10 @@
         <v>67</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
@@ -5999,10 +6010,10 @@
         <v>68</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
@@ -6014,10 +6025,10 @@
         <v>69</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
@@ -6029,10 +6040,10 @@
         <v>70</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
@@ -6044,10 +6055,10 @@
         <v>71</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
@@ -6059,10 +6070,10 @@
         <v>72</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
@@ -6074,10 +6085,10 @@
         <v>73</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">
@@ -6089,10 +6100,10 @@
         <v>74</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.3">
@@ -6104,10 +6115,10 @@
         <v>75</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
@@ -6119,10 +6130,10 @@
         <v>76</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.3">
@@ -6134,10 +6145,10 @@
         <v>77</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.3">
@@ -6149,10 +6160,10 @@
         <v>78</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.3">
@@ -6164,10 +6175,10 @@
         <v>79</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.3">
@@ -6179,10 +6190,10 @@
         <v>80</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.3">
@@ -6194,10 +6205,10 @@
         <v>81</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.3">
@@ -6209,10 +6220,10 @@
         <v>82</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.3">
@@ -6224,10 +6235,10 @@
         <v>83</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.3">
@@ -6239,10 +6250,10 @@
         <v>84</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
@@ -6254,10 +6265,10 @@
         <v>85</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
@@ -6269,10 +6280,10 @@
         <v>86</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
@@ -6284,10 +6295,10 @@
         <v>87</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
@@ -6299,10 +6310,10 @@
         <v>88</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.3">
@@ -6314,10 +6325,10 @@
         <v>89</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
@@ -6329,10 +6340,10 @@
         <v>90</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.3">
@@ -6344,10 +6355,10 @@
         <v>91</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
@@ -6359,10 +6370,10 @@
         <v>92</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.3">
@@ -6374,10 +6385,10 @@
         <v>93</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
@@ -6389,10 +6400,10 @@
         <v>94</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
@@ -6404,10 +6415,10 @@
         <v>95</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
@@ -6419,10 +6430,10 @@
         <v>96</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
@@ -6434,10 +6445,10 @@
         <v>97</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
@@ -6449,10 +6460,10 @@
         <v>98</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
@@ -6464,10 +6475,10 @@
         <v>99</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
@@ -6479,10 +6490,10 @@
         <v>100</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.3">
@@ -6494,10 +6505,10 @@
         <v>101</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.3">
@@ -6509,10 +6520,10 @@
         <v>102</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.3">
@@ -6524,10 +6535,10 @@
         <v>103</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.3">
@@ -6539,10 +6550,10 @@
         <v>104</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.3">
@@ -6554,10 +6565,10 @@
         <v>105</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.3">
@@ -6569,10 +6580,10 @@
         <v>106</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.3">
@@ -6584,10 +6595,10 @@
         <v>107</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.3">
@@ -6599,10 +6610,10 @@
         <v>108</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.3">
@@ -6614,10 +6625,10 @@
         <v>109</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.3">
@@ -6629,10 +6640,10 @@
         <v>110</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.3">
@@ -6644,10 +6655,10 @@
         <v>111</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.3">
@@ -6659,10 +6670,10 @@
         <v>112</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.3">
@@ -6674,10 +6685,10 @@
         <v>113</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.3">
@@ -6689,10 +6700,10 @@
         <v>114</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.3">
@@ -6704,10 +6715,10 @@
         <v>115</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.3">
@@ -6719,10 +6730,10 @@
         <v>116</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.3">
@@ -6734,10 +6745,10 @@
         <v>117</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.3">
@@ -6749,10 +6760,10 @@
         <v>118</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.3">
@@ -6764,10 +6775,10 @@
         <v>119</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.3">
@@ -6779,10 +6790,10 @@
         <v>120</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.3">
@@ -6794,10 +6805,10 @@
         <v>121</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>1544</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>1546</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.3">
@@ -6809,10 +6820,10 @@
         <v>122</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.3">
@@ -6824,10 +6835,10 @@
         <v>123</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.3">
@@ -6839,10 +6850,10 @@
         <v>124</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.3">
@@ -6854,10 +6865,10 @@
         <v>125</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.3">
@@ -6869,10 +6880,10 @@
         <v>126</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.3">
@@ -6884,10 +6895,10 @@
         <v>127</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.3">
@@ -6899,10 +6910,10 @@
         <v>128</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.3">
@@ -6914,10 +6925,10 @@
         <v>129</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.3">
@@ -6929,10 +6940,10 @@
         <v>130</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.3">
@@ -6944,10 +6955,10 @@
         <v>131</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.3">
@@ -6959,10 +6970,10 @@
         <v>132</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.3">
@@ -6974,10 +6985,10 @@
         <v>133</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.3">
@@ -6989,10 +7000,10 @@
         <v>134</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.3">
@@ -7004,10 +7015,10 @@
         <v>135</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.3">
@@ -7019,10 +7030,10 @@
         <v>136</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.3">
@@ -7034,10 +7045,10 @@
         <v>137</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.3">
@@ -7049,10 +7060,10 @@
         <v>138</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.3">
@@ -7064,10 +7075,10 @@
         <v>139</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.3">
@@ -7079,10 +7090,10 @@
         <v>140</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.3">
@@ -7094,10 +7105,10 @@
         <v>141</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.3">
@@ -7109,10 +7120,10 @@
         <v>142</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.3">
@@ -7124,10 +7135,10 @@
         <v>143</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.3">
@@ -7139,10 +7150,10 @@
         <v>144</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.3">
@@ -7154,10 +7165,10 @@
         <v>145</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.3">
@@ -7169,10 +7180,10 @@
         <v>146</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.3">
@@ -7184,10 +7195,10 @@
         <v>147</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.3">
@@ -7199,10 +7210,10 @@
         <v>148</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.3">
@@ -7214,10 +7225,10 @@
         <v>149</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.3">
@@ -7229,10 +7240,10 @@
         <v>150</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.3">
@@ -7244,10 +7255,10 @@
         <v>151</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.3">
@@ -7259,10 +7270,10 @@
         <v>152</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.3">
@@ -7274,10 +7285,10 @@
         <v>153</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.3">
@@ -7289,10 +7300,10 @@
         <v>154</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.3">
@@ -7304,10 +7315,10 @@
         <v>155</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.3">
@@ -7319,10 +7330,10 @@
         <v>156</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.3">
@@ -7334,10 +7345,10 @@
         <v>157</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.3">
@@ -7349,10 +7360,10 @@
         <v>158</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.3">
@@ -7364,10 +7375,10 @@
         <v>159</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.3">
@@ -7379,10 +7390,10 @@
         <v>160</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.3">
@@ -7394,10 +7405,10 @@
         <v>161</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.3">
@@ -7409,10 +7420,10 @@
         <v>162</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.3">
@@ -7424,10 +7435,10 @@
         <v>163</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.3">
@@ -7439,10 +7450,10 @@
         <v>164</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.3">
@@ -7454,10 +7465,10 @@
         <v>165</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.3">
@@ -7469,10 +7480,10 @@
         <v>166</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.3">
@@ -7484,10 +7495,10 @@
         <v>167</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.3">
@@ -7499,10 +7510,10 @@
         <v>168</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.3">
@@ -7514,10 +7525,10 @@
         <v>169</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.3">
@@ -7529,10 +7540,10 @@
         <v>170</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.3">
@@ -7544,10 +7555,10 @@
         <v>171</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.3">
@@ -7559,10 +7570,10 @@
         <v>172</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.3">
@@ -7574,10 +7585,10 @@
         <v>173</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.3">
@@ -7589,10 +7600,10 @@
         <v>174</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.3">
@@ -7604,10 +7615,10 @@
         <v>175</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.3">
@@ -7619,10 +7630,10 @@
         <v>176</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.3">
@@ -7634,10 +7645,10 @@
         <v>177</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.3">
@@ -7649,10 +7660,10 @@
         <v>178</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.3">
@@ -7664,10 +7675,10 @@
         <v>179</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.3">
@@ -7679,10 +7690,10 @@
         <v>180</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.3">
@@ -7694,10 +7705,10 @@
         <v>181</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.3">
@@ -7709,10 +7720,10 @@
         <v>182</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.3">
@@ -7724,10 +7735,10 @@
         <v>183</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.3">
@@ -7739,10 +7750,10 @@
         <v>184</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.3">
@@ -7754,10 +7765,10 @@
         <v>185</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.3">
@@ -7769,10 +7780,10 @@
         <v>186</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.3">
@@ -7784,10 +7795,10 @@
         <v>187</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.3">
@@ -7799,10 +7810,10 @@
         <v>188</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.3">
@@ -7814,10 +7825,10 @@
         <v>189</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.3">
@@ -7829,10 +7840,10 @@
         <v>190</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.3">
@@ -7844,10 +7855,10 @@
         <v>191</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.3">
@@ -7859,10 +7870,10 @@
         <v>192</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.3">
@@ -7874,10 +7885,10 @@
         <v>193</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.3">
@@ -7889,10 +7900,10 @@
         <v>194</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.3">
@@ -7904,10 +7915,10 @@
         <v>195</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.3">
@@ -7919,10 +7930,10 @@
         <v>196</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.3">
@@ -7934,10 +7945,10 @@
         <v>197</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.3">
@@ -7949,10 +7960,10 @@
         <v>198</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.3">
@@ -7964,10 +7975,10 @@
         <v>199</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.3">
@@ -7979,10 +7990,10 @@
         <v>200</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.3">
@@ -7994,10 +8005,10 @@
         <v>201</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.3">
@@ -8009,10 +8020,10 @@
         <v>202</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="199" spans="2:5" x14ac:dyDescent="0.3">
@@ -8024,10 +8035,10 @@
         <v>203</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.3">
@@ -8039,10 +8050,10 @@
         <v>204</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.3">
@@ -8054,10 +8065,10 @@
         <v>205</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.3">
@@ -8069,10 +8080,10 @@
         <v>206</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.3">
@@ -8084,10 +8095,10 @@
         <v>207</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.3">
@@ -8099,10 +8110,10 @@
         <v>208</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.3">
@@ -8114,10 +8125,10 @@
         <v>209</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.3">
@@ -8129,10 +8140,10 @@
         <v>210</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.3">
@@ -8144,10 +8155,10 @@
         <v>211</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="208" spans="2:5" x14ac:dyDescent="0.3">
@@ -8159,10 +8170,10 @@
         <v>212</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="209" spans="2:5" x14ac:dyDescent="0.3">
@@ -8174,10 +8185,10 @@
         <v>213</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="210" spans="2:5" x14ac:dyDescent="0.3">
@@ -8189,10 +8200,10 @@
         <v>214</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="211" spans="2:5" x14ac:dyDescent="0.3">
@@ -8204,10 +8215,10 @@
         <v>215</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="212" spans="2:5" x14ac:dyDescent="0.3">
@@ -8219,10 +8230,10 @@
         <v>216</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="213" spans="2:5" x14ac:dyDescent="0.3">
@@ -8234,10 +8245,10 @@
         <v>217</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="214" spans="2:5" x14ac:dyDescent="0.3">
@@ -8249,10 +8260,10 @@
         <v>218</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="215" spans="2:5" x14ac:dyDescent="0.3">
@@ -8264,10 +8275,10 @@
         <v>219</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="216" spans="2:5" x14ac:dyDescent="0.3">
@@ -8279,10 +8290,10 @@
         <v>220</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="217" spans="2:5" x14ac:dyDescent="0.3">
@@ -8294,10 +8305,10 @@
         <v>221</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="218" spans="2:5" x14ac:dyDescent="0.3">
@@ -8309,10 +8320,10 @@
         <v>222</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="219" spans="2:5" x14ac:dyDescent="0.3">
@@ -8324,10 +8335,10 @@
         <v>223</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="220" spans="2:5" x14ac:dyDescent="0.3">
@@ -8339,10 +8350,10 @@
         <v>224</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="221" spans="2:5" x14ac:dyDescent="0.3">
@@ -8354,10 +8365,10 @@
         <v>225</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="222" spans="2:5" x14ac:dyDescent="0.3">
@@ -8369,10 +8380,10 @@
         <v>226</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="223" spans="2:5" x14ac:dyDescent="0.3">
@@ -8384,10 +8395,10 @@
         <v>227</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="224" spans="2:5" x14ac:dyDescent="0.3">
@@ -8399,10 +8410,10 @@
         <v>228</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="225" spans="2:5" x14ac:dyDescent="0.3">
@@ -8414,10 +8425,10 @@
         <v>229</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="226" spans="2:5" x14ac:dyDescent="0.3">
@@ -8429,10 +8440,10 @@
         <v>230</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="227" spans="2:5" x14ac:dyDescent="0.3">
@@ -8444,10 +8455,10 @@
         <v>231</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="228" spans="2:5" x14ac:dyDescent="0.3">
@@ -8459,10 +8470,10 @@
         <v>232</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="229" spans="2:5" x14ac:dyDescent="0.3">
@@ -8474,10 +8485,10 @@
         <v>233</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="230" spans="2:5" x14ac:dyDescent="0.3">
@@ -8489,10 +8500,10 @@
         <v>234</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="231" spans="2:5" x14ac:dyDescent="0.3">
@@ -8504,10 +8515,10 @@
         <v>235</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="232" spans="2:5" x14ac:dyDescent="0.3">
@@ -8519,10 +8530,10 @@
         <v>236</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="233" spans="2:5" x14ac:dyDescent="0.3">
@@ -8534,10 +8545,10 @@
         <v>237</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="234" spans="2:5" x14ac:dyDescent="0.3">
@@ -8549,10 +8560,10 @@
         <v>238</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="235" spans="2:5" x14ac:dyDescent="0.3">
@@ -8564,10 +8575,10 @@
         <v>239</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="236" spans="2:5" x14ac:dyDescent="0.3">
@@ -8579,10 +8590,10 @@
         <v>240</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="237" spans="2:5" x14ac:dyDescent="0.3">
@@ -8594,10 +8605,10 @@
         <v>241</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="238" spans="2:5" x14ac:dyDescent="0.3">
@@ -8609,10 +8620,10 @@
         <v>242</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="239" spans="2:5" x14ac:dyDescent="0.3">
@@ -8624,10 +8635,10 @@
         <v>243</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="240" spans="2:5" x14ac:dyDescent="0.3">
@@ -8639,10 +8650,10 @@
         <v>244</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="241" spans="2:5" x14ac:dyDescent="0.3">
@@ -8654,10 +8665,10 @@
         <v>245</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="242" spans="2:5" x14ac:dyDescent="0.3">
@@ -8669,10 +8680,10 @@
         <v>246</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="243" spans="2:5" x14ac:dyDescent="0.3">
@@ -8684,10 +8695,10 @@
         <v>247</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="244" spans="2:5" x14ac:dyDescent="0.3">
@@ -8699,10 +8710,10 @@
         <v>248</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="245" spans="2:5" x14ac:dyDescent="0.3">
@@ -8714,10 +8725,10 @@
         <v>249</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="246" spans="2:5" x14ac:dyDescent="0.3">
@@ -8729,10 +8740,10 @@
         <v>250</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="247" spans="2:5" x14ac:dyDescent="0.3">
@@ -8744,10 +8755,10 @@
         <v>251</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="248" spans="2:5" x14ac:dyDescent="0.3">
@@ -8759,10 +8770,10 @@
         <v>252</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="249" spans="2:5" x14ac:dyDescent="0.3">
@@ -8774,10 +8785,10 @@
         <v>253</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="250" spans="2:5" x14ac:dyDescent="0.3">
@@ -8789,10 +8800,10 @@
         <v>254</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="251" spans="2:5" x14ac:dyDescent="0.3">
@@ -8804,10 +8815,10 @@
         <v>255</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="252" spans="2:5" x14ac:dyDescent="0.3">
@@ -8819,10 +8830,10 @@
         <v>256</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="253" spans="2:5" x14ac:dyDescent="0.3">
@@ -8834,10 +8845,10 @@
         <v>257</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="254" spans="2:5" x14ac:dyDescent="0.3">
@@ -8849,10 +8860,10 @@
         <v>258</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="255" spans="2:5" x14ac:dyDescent="0.3">
@@ -8864,10 +8875,10 @@
         <v>259</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="256" spans="2:5" x14ac:dyDescent="0.3">
@@ -8879,10 +8890,10 @@
         <v>260</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="257" spans="2:5" x14ac:dyDescent="0.3">
@@ -8894,10 +8905,10 @@
         <v>261</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="258" spans="2:5" x14ac:dyDescent="0.3">
@@ -8909,10 +8920,10 @@
         <v>262</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="259" spans="2:5" x14ac:dyDescent="0.3">
@@ -8924,10 +8935,10 @@
         <v>263</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="260" spans="2:5" x14ac:dyDescent="0.3">
@@ -8939,10 +8950,10 @@
         <v>264</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="261" spans="2:5" x14ac:dyDescent="0.3">
@@ -8954,10 +8965,10 @@
         <v>265</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="262" spans="2:5" x14ac:dyDescent="0.3">
@@ -8969,10 +8980,10 @@
         <v>266</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="263" spans="2:5" x14ac:dyDescent="0.3">
@@ -8984,10 +8995,10 @@
         <v>267</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="264" spans="2:5" x14ac:dyDescent="0.3">
@@ -8999,10 +9010,10 @@
         <v>268</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="265" spans="2:5" x14ac:dyDescent="0.3">
@@ -9014,10 +9025,10 @@
         <v>269</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="266" spans="2:5" x14ac:dyDescent="0.3">
@@ -9029,10 +9040,10 @@
         <v>270</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="267" spans="2:5" x14ac:dyDescent="0.3">
@@ -9044,10 +9055,10 @@
         <v>271</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="268" spans="2:5" x14ac:dyDescent="0.3">
@@ -9059,10 +9070,10 @@
         <v>272</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="269" spans="2:5" x14ac:dyDescent="0.3">
@@ -9074,10 +9085,10 @@
         <v>273</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="270" spans="2:5" x14ac:dyDescent="0.3">
@@ -9089,10 +9100,10 @@
         <v>274</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="271" spans="2:5" x14ac:dyDescent="0.3">
@@ -9104,10 +9115,10 @@
         <v>275</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="272" spans="2:5" x14ac:dyDescent="0.3">
@@ -9119,10 +9130,10 @@
         <v>276</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="273" spans="2:5" x14ac:dyDescent="0.3">
@@ -9134,10 +9145,10 @@
         <v>277</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="274" spans="2:5" x14ac:dyDescent="0.3">
@@ -9149,10 +9160,10 @@
         <v>278</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="275" spans="2:5" x14ac:dyDescent="0.3">
@@ -9164,10 +9175,10 @@
         <v>279</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="276" spans="2:5" x14ac:dyDescent="0.3">
@@ -9179,10 +9190,10 @@
         <v>280</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="277" spans="2:5" x14ac:dyDescent="0.3">
@@ -9194,10 +9205,10 @@
         <v>281</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="278" spans="2:5" x14ac:dyDescent="0.3">
@@ -9209,10 +9220,10 @@
         <v>282</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="279" spans="2:5" x14ac:dyDescent="0.3">
@@ -9224,10 +9235,10 @@
         <v>283</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="280" spans="2:5" x14ac:dyDescent="0.3">
@@ -9239,10 +9250,10 @@
         <v>284</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="281" spans="2:5" x14ac:dyDescent="0.3">
@@ -9254,10 +9265,10 @@
         <v>285</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="282" spans="2:5" x14ac:dyDescent="0.3">
@@ -9269,10 +9280,10 @@
         <v>286</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="283" spans="2:5" x14ac:dyDescent="0.3">
@@ -9284,10 +9295,10 @@
         <v>287</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="284" spans="2:5" x14ac:dyDescent="0.3">
@@ -9299,10 +9310,10 @@
         <v>288</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="285" spans="2:5" x14ac:dyDescent="0.3">
@@ -9314,10 +9325,10 @@
         <v>289</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="286" spans="2:5" x14ac:dyDescent="0.3">
@@ -9329,10 +9340,10 @@
         <v>290</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="287" spans="2:5" x14ac:dyDescent="0.3">
@@ -9344,10 +9355,10 @@
         <v>291</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="288" spans="2:5" x14ac:dyDescent="0.3">
@@ -9359,10 +9370,10 @@
         <v>292</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="289" spans="2:5" x14ac:dyDescent="0.3">
@@ -9374,10 +9385,10 @@
         <v>293</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="290" spans="2:5" x14ac:dyDescent="0.3">
@@ -9389,10 +9400,10 @@
         <v>294</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="291" spans="2:5" x14ac:dyDescent="0.3">
@@ -9404,10 +9415,10 @@
         <v>295</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="292" spans="2:5" x14ac:dyDescent="0.3">
@@ -9419,10 +9430,10 @@
         <v>296</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="293" spans="2:5" x14ac:dyDescent="0.3">
@@ -9434,10 +9445,10 @@
         <v>297</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="294" spans="2:5" x14ac:dyDescent="0.3">
@@ -9449,10 +9460,10 @@
         <v>298</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="295" spans="2:5" x14ac:dyDescent="0.3">
@@ -9464,10 +9475,10 @@
         <v>299</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="296" spans="2:5" x14ac:dyDescent="0.3">
@@ -9479,10 +9490,10 @@
         <v>300</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="297" spans="2:5" x14ac:dyDescent="0.3">
@@ -9494,10 +9505,10 @@
         <v>301</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="298" spans="2:5" x14ac:dyDescent="0.3">
@@ -9509,10 +9520,10 @@
         <v>302</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="299" spans="2:5" x14ac:dyDescent="0.3">
@@ -9524,10 +9535,10 @@
         <v>303</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="300" spans="2:5" x14ac:dyDescent="0.3">
@@ -9539,10 +9550,10 @@
         <v>304</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="301" spans="2:5" x14ac:dyDescent="0.3">
@@ -9554,10 +9565,10 @@
         <v>305</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="302" spans="2:5" x14ac:dyDescent="0.3">
@@ -9569,10 +9580,10 @@
         <v>306</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="303" spans="2:5" x14ac:dyDescent="0.3">
@@ -9584,10 +9595,10 @@
         <v>307</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="304" spans="2:5" x14ac:dyDescent="0.3">
@@ -9599,10 +9610,10 @@
         <v>308</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="305" spans="2:5" x14ac:dyDescent="0.3">
@@ -9614,10 +9625,10 @@
         <v>309</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="306" spans="2:5" x14ac:dyDescent="0.3">
@@ -9629,10 +9640,10 @@
         <v>310</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="307" spans="2:5" x14ac:dyDescent="0.3">
@@ -9644,10 +9655,10 @@
         <v>311</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="308" spans="2:5" x14ac:dyDescent="0.3">
@@ -9659,10 +9670,10 @@
         <v>312</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="309" spans="2:5" x14ac:dyDescent="0.3">
@@ -9674,10 +9685,10 @@
         <v>313</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="310" spans="2:5" x14ac:dyDescent="0.3">
@@ -9689,10 +9700,10 @@
         <v>314</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="311" spans="2:5" x14ac:dyDescent="0.3">
@@ -9704,10 +9715,10 @@
         <v>315</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="312" spans="2:5" x14ac:dyDescent="0.3">
@@ -9719,10 +9730,10 @@
         <v>316</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="313" spans="2:5" x14ac:dyDescent="0.3">
@@ -9734,10 +9745,10 @@
         <v>317</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="314" spans="2:5" x14ac:dyDescent="0.3">
@@ -9749,10 +9760,10 @@
         <v>318</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="315" spans="2:5" x14ac:dyDescent="0.3">
@@ -9764,10 +9775,10 @@
         <v>319</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="316" spans="2:5" x14ac:dyDescent="0.3">
@@ -9779,10 +9790,10 @@
         <v>320</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="317" spans="2:5" x14ac:dyDescent="0.3">
@@ -9794,10 +9805,10 @@
         <v>321</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="318" spans="2:5" x14ac:dyDescent="0.3">
@@ -9809,10 +9820,10 @@
         <v>322</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="319" spans="2:5" x14ac:dyDescent="0.3">
@@ -9824,10 +9835,10 @@
         <v>323</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="320" spans="2:5" x14ac:dyDescent="0.3">
@@ -9839,10 +9850,10 @@
         <v>324</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="321" spans="2:5" x14ac:dyDescent="0.3">
@@ -9854,10 +9865,10 @@
         <v>325</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="322" spans="2:5" x14ac:dyDescent="0.3">
@@ -9869,10 +9880,10 @@
         <v>326</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="323" spans="2:5" x14ac:dyDescent="0.3">
@@ -9884,10 +9895,10 @@
         <v>327</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="324" spans="2:5" x14ac:dyDescent="0.3">
@@ -9899,10 +9910,10 @@
         <v>328</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="325" spans="2:5" x14ac:dyDescent="0.3">
@@ -9914,10 +9925,10 @@
         <v>329</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="326" spans="2:5" x14ac:dyDescent="0.3">
@@ -9929,10 +9940,10 @@
         <v>330</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="327" spans="2:5" x14ac:dyDescent="0.3">
@@ -9944,10 +9955,10 @@
         <v>331</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="328" spans="2:5" x14ac:dyDescent="0.3">
@@ -9959,10 +9970,10 @@
         <v>332</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="329" spans="2:5" x14ac:dyDescent="0.3">
@@ -9974,10 +9985,10 @@
         <v>333</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="330" spans="2:5" x14ac:dyDescent="0.3">
@@ -9989,10 +10000,10 @@
         <v>334</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="331" spans="2:5" x14ac:dyDescent="0.3">
@@ -10004,10 +10015,10 @@
         <v>335</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="332" spans="2:5" x14ac:dyDescent="0.3">
@@ -10019,10 +10030,10 @@
         <v>336</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="333" spans="2:5" x14ac:dyDescent="0.3">
@@ -10034,10 +10045,10 @@
         <v>337</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="334" spans="2:5" x14ac:dyDescent="0.3">
@@ -10049,10 +10060,10 @@
         <v>338</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="335" spans="2:5" x14ac:dyDescent="0.3">
@@ -10064,10 +10075,10 @@
         <v>339</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="336" spans="2:5" x14ac:dyDescent="0.3">
@@ -10079,10 +10090,10 @@
         <v>340</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="337" spans="2:5" x14ac:dyDescent="0.3">
@@ -10094,10 +10105,10 @@
         <v>341</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="338" spans="2:5" x14ac:dyDescent="0.3">
@@ -10109,10 +10120,10 @@
         <v>342</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="339" spans="2:5" x14ac:dyDescent="0.3">
@@ -10124,10 +10135,10 @@
         <v>343</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="340" spans="2:5" x14ac:dyDescent="0.3">
@@ -10139,10 +10150,10 @@
         <v>344</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="341" spans="2:5" x14ac:dyDescent="0.3">
@@ -10154,10 +10165,10 @@
         <v>345</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="342" spans="2:5" x14ac:dyDescent="0.3">
@@ -10169,10 +10180,10 @@
         <v>346</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="343" spans="2:5" x14ac:dyDescent="0.3">
@@ -10184,10 +10195,10 @@
         <v>347</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="344" spans="2:5" x14ac:dyDescent="0.3">
@@ -10199,10 +10210,10 @@
         <v>348</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="345" spans="2:5" x14ac:dyDescent="0.3">
@@ -10214,10 +10225,10 @@
         <v>349</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="346" spans="2:5" x14ac:dyDescent="0.3">
@@ -10229,10 +10240,10 @@
         <v>350</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="347" spans="2:5" x14ac:dyDescent="0.3">
@@ -10244,10 +10255,10 @@
         <v>351</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="348" spans="2:5" x14ac:dyDescent="0.3">
@@ -10259,10 +10270,10 @@
         <v>352</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="349" spans="2:5" x14ac:dyDescent="0.3">
@@ -10274,10 +10285,10 @@
         <v>353</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="350" spans="2:5" x14ac:dyDescent="0.3">
@@ -10289,10 +10300,10 @@
         <v>354</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="351" spans="2:5" x14ac:dyDescent="0.3">
@@ -10304,10 +10315,10 @@
         <v>355</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="352" spans="2:5" x14ac:dyDescent="0.3">
@@ -10319,10 +10330,10 @@
         <v>356</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="353" spans="2:5" x14ac:dyDescent="0.3">
@@ -10334,10 +10345,10 @@
         <v>357</v>
       </c>
       <c r="D353" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E353" s="2" t="s">
         <v>1545</v>
-      </c>
-      <c r="E353" s="2" t="s">
-        <v>1547</v>
       </c>
     </row>
     <row r="354" spans="2:5" x14ac:dyDescent="0.3">
@@ -10349,10 +10360,10 @@
         <v>358</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="355" spans="2:5" x14ac:dyDescent="0.3">
@@ -10364,10 +10375,10 @@
         <v>359</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="356" spans="2:5" x14ac:dyDescent="0.3">
@@ -10379,10 +10390,10 @@
         <v>360</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="357" spans="2:5" x14ac:dyDescent="0.3">
@@ -10394,10 +10405,10 @@
         <v>361</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="358" spans="2:5" x14ac:dyDescent="0.3">
@@ -10409,10 +10420,10 @@
         <v>362</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="359" spans="2:5" x14ac:dyDescent="0.3">
@@ -10424,10 +10435,10 @@
         <v>67</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="360" spans="2:5" x14ac:dyDescent="0.3">
@@ -10439,10 +10450,10 @@
         <v>346</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="361" spans="2:5" x14ac:dyDescent="0.3">
@@ -10454,10 +10465,10 @@
         <v>363</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="362" spans="2:5" x14ac:dyDescent="0.3">
@@ -10469,10 +10480,10 @@
         <v>364</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="363" spans="2:5" x14ac:dyDescent="0.3">
@@ -10514,10 +10525,10 @@
         <v>366</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="366" spans="2:5" x14ac:dyDescent="0.3">
@@ -10529,10 +10540,10 @@
         <v>367</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="367" spans="2:5" x14ac:dyDescent="0.3">
@@ -10544,10 +10555,10 @@
         <v>368</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="368" spans="2:5" x14ac:dyDescent="0.3">
@@ -10559,10 +10570,10 @@
         <v>369</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="369" spans="2:5" x14ac:dyDescent="0.3">
@@ -10574,10 +10585,10 @@
         <v>370</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="370" spans="2:5" x14ac:dyDescent="0.3">
@@ -10589,10 +10600,10 @@
         <v>371</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="371" spans="2:5" x14ac:dyDescent="0.3">
@@ -10604,10 +10615,10 @@
         <v>372</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="372" spans="2:5" x14ac:dyDescent="0.3">
@@ -10619,10 +10630,10 @@
         <v>373</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="373" spans="2:5" x14ac:dyDescent="0.3">
@@ -10634,10 +10645,10 @@
         <v>374</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="374" spans="2:5" x14ac:dyDescent="0.3">
@@ -10649,10 +10660,10 @@
         <v>375</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="375" spans="2:5" x14ac:dyDescent="0.3">
@@ -10664,10 +10675,10 @@
         <v>376</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="376" spans="2:5" x14ac:dyDescent="0.3">
@@ -10679,10 +10690,10 @@
         <v>377</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="377" spans="2:5" x14ac:dyDescent="0.3">
@@ -10694,10 +10705,10 @@
         <v>378</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="378" spans="2:5" x14ac:dyDescent="0.3">
@@ -10709,10 +10720,10 @@
         <v>379</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="379" spans="2:5" x14ac:dyDescent="0.3">
@@ -10724,10 +10735,10 @@
         <v>380</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="380" spans="2:5" x14ac:dyDescent="0.3">
@@ -10739,10 +10750,10 @@
         <v>381</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="381" spans="2:5" x14ac:dyDescent="0.3">
@@ -10754,10 +10765,10 @@
         <v>382</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="382" spans="2:5" x14ac:dyDescent="0.3">
@@ -10769,10 +10780,10 @@
         <v>383</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="383" spans="2:5" x14ac:dyDescent="0.3">
@@ -10784,10 +10795,10 @@
         <v>384</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="384" spans="2:5" x14ac:dyDescent="0.3">
@@ -10799,10 +10810,10 @@
         <v>385</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="385" spans="2:5" x14ac:dyDescent="0.3">
@@ -10814,10 +10825,10 @@
         <v>386</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="386" spans="2:5" x14ac:dyDescent="0.3">
@@ -10829,10 +10840,10 @@
         <v>387</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="387" spans="2:5" x14ac:dyDescent="0.3">
@@ -10844,10 +10855,10 @@
         <v>388</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="388" spans="2:5" x14ac:dyDescent="0.3">
@@ -10859,10 +10870,10 @@
         <v>389</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="389" spans="2:5" x14ac:dyDescent="0.3">
@@ -10874,10 +10885,10 @@
         <v>390</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="390" spans="2:5" x14ac:dyDescent="0.3">
@@ -10889,10 +10900,10 @@
         <v>391</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="391" spans="2:5" x14ac:dyDescent="0.3">
@@ -10904,10 +10915,10 @@
         <v>392</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="392" spans="2:5" x14ac:dyDescent="0.3">
@@ -10919,10 +10930,10 @@
         <v>393</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="393" spans="2:5" x14ac:dyDescent="0.3">
@@ -10934,10 +10945,10 @@
         <v>394</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="394" spans="2:5" x14ac:dyDescent="0.3">
@@ -10949,10 +10960,10 @@
         <v>395</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="395" spans="2:5" x14ac:dyDescent="0.3">
@@ -10964,10 +10975,10 @@
         <v>396</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="396" spans="2:5" x14ac:dyDescent="0.3">
@@ -10979,10 +10990,10 @@
         <v>397</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="397" spans="2:5" x14ac:dyDescent="0.3">
@@ -10994,10 +11005,10 @@
         <v>398</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="398" spans="2:5" x14ac:dyDescent="0.3">
@@ -11009,10 +11020,10 @@
         <v>399</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="399" spans="2:5" x14ac:dyDescent="0.3">
@@ -11024,10 +11035,10 @@
         <v>400</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="400" spans="2:5" x14ac:dyDescent="0.3">
@@ -11039,10 +11050,10 @@
         <v>401</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="401" spans="2:5" x14ac:dyDescent="0.3">
@@ -11054,10 +11065,10 @@
         <v>402</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="402" spans="2:5" x14ac:dyDescent="0.3">
@@ -11069,10 +11080,10 @@
         <v>403</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="403" spans="2:5" x14ac:dyDescent="0.3">
@@ -11084,10 +11095,10 @@
         <v>404</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="404" spans="2:5" x14ac:dyDescent="0.3">
@@ -11099,10 +11110,10 @@
         <v>405</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="405" spans="2:5" x14ac:dyDescent="0.3">
@@ -11114,10 +11125,10 @@
         <v>406</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="406" spans="2:5" x14ac:dyDescent="0.3">
@@ -11144,10 +11155,10 @@
         <v>408</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="408" spans="2:5" x14ac:dyDescent="0.3">
@@ -11159,10 +11170,10 @@
         <v>409</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="409" spans="2:5" x14ac:dyDescent="0.3">
@@ -11174,10 +11185,10 @@
         <v>410</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="410" spans="2:5" x14ac:dyDescent="0.3">
@@ -11189,10 +11200,10 @@
         <v>411</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="411" spans="2:5" x14ac:dyDescent="0.3">
@@ -11204,10 +11215,10 @@
         <v>412</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="412" spans="2:5" x14ac:dyDescent="0.3">
@@ -11219,10 +11230,10 @@
         <v>413</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="413" spans="2:5" x14ac:dyDescent="0.3">
@@ -11249,10 +11260,10 @@
         <v>414</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="415" spans="2:5" x14ac:dyDescent="0.3">
@@ -11519,10 +11530,10 @@
         <v>415</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="433" spans="2:5" x14ac:dyDescent="0.3">
@@ -11534,10 +11545,10 @@
         <v>416</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="434" spans="2:5" x14ac:dyDescent="0.3">
@@ -11549,10 +11560,10 @@
         <v>417</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="435" spans="2:5" x14ac:dyDescent="0.3">
@@ -11564,10 +11575,10 @@
         <v>418</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="436" spans="2:5" x14ac:dyDescent="0.3">
@@ -11579,10 +11590,10 @@
         <v>419</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="437" spans="2:5" x14ac:dyDescent="0.3">
@@ -11594,10 +11605,10 @@
         <v>420</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="438" spans="2:5" x14ac:dyDescent="0.3">
@@ -11609,10 +11620,10 @@
         <v>421</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="439" spans="2:5" x14ac:dyDescent="0.3">
@@ -11624,10 +11635,10 @@
         <v>422</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="440" spans="2:5" x14ac:dyDescent="0.3">
@@ -11639,10 +11650,10 @@
         <v>423</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="441" spans="2:5" x14ac:dyDescent="0.3">
@@ -11654,10 +11665,10 @@
         <v>424</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="442" spans="2:5" x14ac:dyDescent="0.3">
@@ -11669,10 +11680,10 @@
         <v>425</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="443" spans="2:5" x14ac:dyDescent="0.3">
@@ -11684,10 +11695,10 @@
         <v>426</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="444" spans="2:5" x14ac:dyDescent="0.3">
@@ -11699,10 +11710,10 @@
         <v>427</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="445" spans="2:5" x14ac:dyDescent="0.3">
@@ -11714,10 +11725,10 @@
         <v>428</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="446" spans="2:5" x14ac:dyDescent="0.3">
@@ -11729,10 +11740,10 @@
         <v>429</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="447" spans="2:5" x14ac:dyDescent="0.3">
@@ -11744,10 +11755,10 @@
         <v>430</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="448" spans="2:5" x14ac:dyDescent="0.3">
@@ -11759,10 +11770,10 @@
         <v>431</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="449" spans="2:5" x14ac:dyDescent="0.3">
@@ -11774,10 +11785,10 @@
         <v>432</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="450" spans="2:5" x14ac:dyDescent="0.3">
@@ -11789,10 +11800,10 @@
         <v>433</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="451" spans="2:5" x14ac:dyDescent="0.3">
@@ -11804,10 +11815,10 @@
         <v>434</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="452" spans="2:5" x14ac:dyDescent="0.3">
@@ -11819,10 +11830,10 @@
         <v>435</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="453" spans="2:5" x14ac:dyDescent="0.3">
@@ -11834,10 +11845,10 @@
         <v>436</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="454" spans="2:5" x14ac:dyDescent="0.3">
@@ -11849,10 +11860,10 @@
         <v>437</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="455" spans="2:5" x14ac:dyDescent="0.3">
@@ -11864,10 +11875,10 @@
         <v>438</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="456" spans="2:5" x14ac:dyDescent="0.3">
@@ -11879,10 +11890,10 @@
         <v>439</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="457" spans="2:5" x14ac:dyDescent="0.3">
@@ -11894,10 +11905,10 @@
         <v>440</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="458" spans="2:5" x14ac:dyDescent="0.3">
@@ -11909,10 +11920,10 @@
         <v>441</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="459" spans="2:5" x14ac:dyDescent="0.3">
@@ -11924,10 +11935,10 @@
         <v>442</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="460" spans="2:5" x14ac:dyDescent="0.3">
@@ -11939,10 +11950,10 @@
         <v>443</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E460" s="2" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="461" spans="2:5" x14ac:dyDescent="0.3">
@@ -11954,10 +11965,10 @@
         <v>444</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="462" spans="2:5" x14ac:dyDescent="0.3">
@@ -11969,10 +11980,10 @@
         <v>445</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="463" spans="2:5" x14ac:dyDescent="0.3">
@@ -11984,10 +11995,10 @@
         <v>446</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="464" spans="2:5" x14ac:dyDescent="0.3">
@@ -11999,10 +12010,10 @@
         <v>447</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="465" spans="2:5" x14ac:dyDescent="0.3">
@@ -12014,10 +12025,10 @@
         <v>448</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="466" spans="2:5" x14ac:dyDescent="0.3">
@@ -12029,10 +12040,10 @@
         <v>449</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E466" s="2" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="467" spans="2:5" x14ac:dyDescent="0.3">
@@ -12044,10 +12055,10 @@
         <v>450</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E467" s="2" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="468" spans="2:5" x14ac:dyDescent="0.3">
@@ -12059,10 +12070,10 @@
         <v>451</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E468" s="2" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="469" spans="2:5" x14ac:dyDescent="0.3">
@@ -12089,10 +12100,10 @@
         <v>452</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E470" s="2" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="471" spans="2:5" x14ac:dyDescent="0.3">
@@ -12104,10 +12115,10 @@
         <v>453</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E471" s="2" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="472" spans="2:5" x14ac:dyDescent="0.3">
@@ -12119,10 +12130,10 @@
         <v>454</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="473" spans="2:5" x14ac:dyDescent="0.3">
@@ -12134,10 +12145,10 @@
         <v>455</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E473" s="2" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="474" spans="2:5" x14ac:dyDescent="0.3">
@@ -12149,10 +12160,10 @@
         <v>456</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E474" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="475" spans="2:5" x14ac:dyDescent="0.3">
@@ -12164,10 +12175,10 @@
         <v>457</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E475" s="2" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="476" spans="2:5" x14ac:dyDescent="0.3">
@@ -12179,10 +12190,10 @@
         <v>458</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E476" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="477" spans="2:5" x14ac:dyDescent="0.3">
@@ -12194,10 +12205,10 @@
         <v>459</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E477" s="2" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="478" spans="2:5" x14ac:dyDescent="0.3">
@@ -12209,10 +12220,10 @@
         <v>460</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E478" s="2" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="479" spans="2:5" x14ac:dyDescent="0.3">
@@ -12224,10 +12235,10 @@
         <v>461</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E479" s="2" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="480" spans="2:5" x14ac:dyDescent="0.3">
@@ -12239,10 +12250,10 @@
         <v>462</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="481" spans="2:5" x14ac:dyDescent="0.3">
@@ -12254,10 +12265,10 @@
         <v>463</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="482" spans="2:5" x14ac:dyDescent="0.3">
@@ -12269,10 +12280,10 @@
         <v>464</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E482" s="2" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="483" spans="2:5" x14ac:dyDescent="0.3">
@@ -12284,10 +12295,10 @@
         <v>465</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E483" s="2" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="484" spans="2:5" x14ac:dyDescent="0.3">
@@ -12299,10 +12310,10 @@
         <v>466</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E484" s="2" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="485" spans="2:5" x14ac:dyDescent="0.3">
@@ -12314,10 +12325,10 @@
         <v>467</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E485" s="2" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="486" spans="2:5" x14ac:dyDescent="0.3">
@@ -12329,10 +12340,10 @@
         <v>468</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="E486" s="2" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="487" spans="2:5" x14ac:dyDescent="0.3">
@@ -12344,10 +12355,10 @@
         <v>469</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E487" s="2" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="488" spans="2:5" x14ac:dyDescent="0.3">
@@ -12359,10 +12370,10 @@
         <v>470</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="489" spans="2:5" x14ac:dyDescent="0.3">
@@ -12374,10 +12385,10 @@
         <v>471</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E489" s="2" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="490" spans="2:5" x14ac:dyDescent="0.3">
@@ -12389,10 +12400,10 @@
         <v>472</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E490" s="2" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="491" spans="2:5" x14ac:dyDescent="0.3">
@@ -12404,10 +12415,10 @@
         <v>473</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E491" s="2" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="492" spans="2:5" x14ac:dyDescent="0.3">
@@ -12419,10 +12430,10 @@
         <v>474</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E492" s="2" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="493" spans="2:5" x14ac:dyDescent="0.3">
@@ -12434,10 +12445,10 @@
         <v>475</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E493" s="2" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="494" spans="2:5" x14ac:dyDescent="0.3">
@@ -12449,10 +12460,10 @@
         <v>476</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="495" spans="2:5" x14ac:dyDescent="0.3">
@@ -12464,10 +12475,10 @@
         <v>477</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E495" s="2" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="496" spans="2:5" x14ac:dyDescent="0.3">
@@ -12479,10 +12490,10 @@
         <v>478</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="497" spans="2:5" x14ac:dyDescent="0.3">
@@ -12494,10 +12505,10 @@
         <v>479</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E497" s="2" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="498" spans="2:5" x14ac:dyDescent="0.3">
@@ -12509,10 +12520,10 @@
         <v>480</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E498" s="2" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="499" spans="2:5" x14ac:dyDescent="0.3">
@@ -12524,10 +12535,10 @@
         <v>481</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E499" s="2" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="500" spans="2:5" x14ac:dyDescent="0.3">
@@ -12539,10 +12550,10 @@
         <v>482</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E500" s="2" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="501" spans="2:5" x14ac:dyDescent="0.3">
@@ -12554,10 +12565,10 @@
         <v>483</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E501" s="2" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="502" spans="2:5" x14ac:dyDescent="0.3">
@@ -12569,10 +12580,10 @@
         <v>484</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E502" s="2" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="503" spans="2:5" x14ac:dyDescent="0.3">
@@ -12584,10 +12595,10 @@
         <v>485</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="504" spans="2:5" x14ac:dyDescent="0.3">
@@ -12599,10 +12610,10 @@
         <v>486</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E504" s="2" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="505" spans="2:5" x14ac:dyDescent="0.3">
@@ -12614,10 +12625,10 @@
         <v>487</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E505" s="2" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="506" spans="2:5" x14ac:dyDescent="0.3">
@@ -12629,10 +12640,10 @@
         <v>488</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E506" s="2" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="507" spans="2:5" x14ac:dyDescent="0.3">
@@ -12644,10 +12655,10 @@
         <v>489</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E507" s="2" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="508" spans="2:5" x14ac:dyDescent="0.3">
@@ -12659,10 +12670,10 @@
         <v>490</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E508" s="2" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="509" spans="2:5" x14ac:dyDescent="0.3">
@@ -12674,10 +12685,10 @@
         <v>491</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E509" s="2" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="510" spans="2:5" x14ac:dyDescent="0.3">
@@ -12689,10 +12700,10 @@
         <v>492</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="511" spans="2:5" x14ac:dyDescent="0.3">
@@ -12704,10 +12715,10 @@
         <v>493</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="512" spans="2:5" x14ac:dyDescent="0.3">
@@ -12719,10 +12730,10 @@
         <v>494</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E512" s="2" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="513" spans="2:5" x14ac:dyDescent="0.3">
@@ -12734,10 +12745,10 @@
         <v>495</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E513" s="2" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="514" spans="2:5" x14ac:dyDescent="0.3">
@@ -12749,10 +12760,10 @@
         <v>496</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E514" s="2" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="515" spans="2:5" x14ac:dyDescent="0.3">
@@ -12764,10 +12775,10 @@
         <v>497</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="516" spans="2:5" x14ac:dyDescent="0.3">
@@ -12779,10 +12790,10 @@
         <v>498</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E516" s="2" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="517" spans="2:5" x14ac:dyDescent="0.3">
@@ -12794,10 +12805,10 @@
         <v>499</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E517" s="2" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="518" spans="2:5" x14ac:dyDescent="0.3">
@@ -12809,10 +12820,10 @@
         <v>500</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="519" spans="2:5" x14ac:dyDescent="0.3">
@@ -12824,10 +12835,10 @@
         <v>501</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E519" s="2" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="520" spans="2:5" x14ac:dyDescent="0.3">
@@ -12839,10 +12850,10 @@
         <v>502</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E520" s="2" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="521" spans="2:5" x14ac:dyDescent="0.3">
@@ -12854,10 +12865,10 @@
         <v>503</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E521" s="2" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="522" spans="2:5" x14ac:dyDescent="0.3">
@@ -12869,10 +12880,10 @@
         <v>504</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="523" spans="2:5" x14ac:dyDescent="0.3">
@@ -12884,10 +12895,10 @@
         <v>505</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="524" spans="2:5" x14ac:dyDescent="0.3">
@@ -12899,10 +12910,10 @@
         <v>506</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E524" s="2" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="525" spans="2:5" x14ac:dyDescent="0.3">
@@ -12914,10 +12925,10 @@
         <v>507</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E525" s="2" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="526" spans="2:5" x14ac:dyDescent="0.3">
@@ -12929,10 +12940,10 @@
         <v>508</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E526" s="2" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="527" spans="2:5" x14ac:dyDescent="0.3">
@@ -12944,10 +12955,10 @@
         <v>509</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E527" s="2" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="528" spans="2:5" x14ac:dyDescent="0.3">
@@ -12959,10 +12970,10 @@
         <v>510</v>
       </c>
       <c r="D528" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E528" s="2" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="529" spans="2:5" x14ac:dyDescent="0.3">
@@ -12974,10 +12985,10 @@
         <v>511</v>
       </c>
       <c r="D529" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E529" s="2" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="530" spans="2:5" x14ac:dyDescent="0.3">
@@ -12989,10 +13000,10 @@
         <v>512</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E530" s="2" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="531" spans="2:5" x14ac:dyDescent="0.3">
@@ -13004,10 +13015,10 @@
         <v>513</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E531" s="2" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="532" spans="2:5" x14ac:dyDescent="0.3">
@@ -13019,10 +13030,10 @@
         <v>514</v>
       </c>
       <c r="D532" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E532" s="2" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="533" spans="2:5" x14ac:dyDescent="0.3">
@@ -13034,10 +13045,10 @@
         <v>515</v>
       </c>
       <c r="D533" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E533" s="2" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="534" spans="2:5" x14ac:dyDescent="0.3">
@@ -13049,10 +13060,10 @@
         <v>516</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E534" s="2" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="535" spans="2:5" x14ac:dyDescent="0.3">
@@ -13064,10 +13075,10 @@
         <v>517</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E535" s="2" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="536" spans="2:5" x14ac:dyDescent="0.3">
@@ -13079,10 +13090,10 @@
         <v>518</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E536" s="2" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="537" spans="2:5" x14ac:dyDescent="0.3">
@@ -13094,10 +13105,10 @@
         <v>363</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E537" s="2" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="538" spans="2:5" x14ac:dyDescent="0.3">
@@ -13109,10 +13120,10 @@
         <v>519</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E538" s="2" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="539" spans="2:5" x14ac:dyDescent="0.3">
@@ -13124,10 +13135,10 @@
         <v>520</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E539" s="2" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="540" spans="2:5" x14ac:dyDescent="0.3">
@@ -13139,10 +13150,10 @@
         <v>521</v>
       </c>
       <c r="D540" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E540" s="2" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="541" spans="2:5" x14ac:dyDescent="0.3">
@@ -13154,10 +13165,10 @@
         <v>522</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E541" s="2" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="542" spans="2:5" x14ac:dyDescent="0.3">
@@ -13169,10 +13180,10 @@
         <v>523</v>
       </c>
       <c r="D542" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E542" s="2" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="543" spans="2:5" x14ac:dyDescent="0.3">
@@ -13184,10 +13195,10 @@
         <v>524</v>
       </c>
       <c r="D543" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E543" s="2" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="544" spans="2:5" x14ac:dyDescent="0.3">
@@ -13199,10 +13210,10 @@
         <v>525</v>
       </c>
       <c r="D544" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E544" s="2" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="545" spans="2:5" x14ac:dyDescent="0.3">
@@ -13477,5 +13488,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Texts/Глоссарий/Названия Приёмов.xlsx
+++ b/Texts/Глоссарий/Названия Приёмов.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="1552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="1554">
   <si>
     <t>Раздел</t>
   </si>
@@ -4680,6 +4680,12 @@
   </si>
   <si>
     <t>Ðéñïëéîåè</t>
+  </si>
+  <si>
+    <t>Кулак Тени</t>
+  </si>
+  <si>
+    <t>Ëôìàë Óåîé</t>
   </si>
 </sst>
 </file>
@@ -5038,8 +5044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6970,10 +6976,10 @@
         <v>132</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>650</v>
+        <v>1552</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>1158</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.3">
